--- a/Unity/Assets/Config/Excel/Datas/ColliderConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/ColliderConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD76DCD3-2DEB-4C48-821E-64067CF92211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D7DA4-44C2-4B59-9C8D-EFF9DA99913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1464" windowWidth="16944" windowHeight="10284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Vector2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>偏移</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -211,10 +207,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>List,Vector2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>碰撞体所包含的顶点信息(顺时针),可能由多个多边形组成</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -228,6 +220,18 @@
   </si>
   <si>
     <t>总顶点数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),vector2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -670,7 +674,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -682,7 +686,7 @@
     <col min="5" max="5" width="11.44140625" style="8" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" style="8" customWidth="1"/>
     <col min="7" max="10" width="11.44140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="21.21875" style="8" customWidth="1"/>
     <col min="12" max="12" width="12.109375" style="8" customWidth="1"/>
     <col min="13" max="16384" width="9" style="8"/>
   </cols>
@@ -707,22 +711,22 @@
         <v>37</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -742,25 +746,25 @@
         <v>34</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -780,25 +784,25 @@
         <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -815,7 +819,7 @@
         <v>36</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>22</v>

--- a/Unity/Assets/Config/Excel/Datas/ColliderConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/ColliderConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D7DA4-44C2-4B59-9C8D-EFF9DA99913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8905F1D-092D-4AA9-9363-EB16BF37D33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -187,14 +187,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Angle</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转角度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Radius</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -203,26 +195,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Points</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>碰撞体所包含的顶点信息(顺时针),可能由多个多边形组成</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>PointCount</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总顶点数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>vector2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -231,7 +207,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>(list#sep=;),vector2</t>
+    <t>list,(list#sep=;),vector2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*FinalPoints</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -671,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -685,13 +665,12 @@
     <col min="4" max="4" width="15.21875" style="8" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" style="8" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" style="8" customWidth="1"/>
-    <col min="7" max="10" width="11.44140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="21.21875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="8"/>
+    <col min="7" max="9" width="11.44140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -711,7 +690,7 @@
         <v>37</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>39</v>
@@ -720,16 +699,10 @@
         <v>43</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -746,7 +719,7 @@
         <v>34</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>40</v>
@@ -758,16 +731,10 @@
         <v>40</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -787,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>41</v>
@@ -796,16 +763,10 @@
         <v>42</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>10001</v>
       </c>
@@ -819,7 +780,7 @@
         <v>36</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>22</v>
@@ -831,12 +792,8 @@
         <v>22</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="11"/>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/ColliderConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/ColliderConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8905F1D-092D-4AA9-9363-EB16BF37D33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B49EB9-2EF0-4B8C-8FC8-7C3C0678DC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>##var</t>
   </si>
@@ -212,6 +212,14 @@
   </si>
   <si>
     <t>*FinalPoints</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -653,20 +661,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="8" customWidth="1"/>
-    <col min="7" max="9" width="11.44140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="8" customWidth="1"/>
+    <col min="7" max="9" width="11.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="8" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -766,9 +774,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
-        <v>10001</v>
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>31</v>
@@ -783,7 +791,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>22</v>
@@ -811,19 +819,19 @@
       <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="27.21875" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -837,7 +845,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -860,7 +868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
@@ -874,7 +882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
@@ -888,7 +896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
